--- a/output/fit_clients/fit_round_41.xlsx
+++ b/output/fit_clients/fit_round_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8280963050.165442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.002994134871950507</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.449562895964573</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9344187009855164</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.449562895964573</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4726229936.15482</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00425266004479749</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.101284971364762</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.90003424948225</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.101284971364762</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6230755714.488952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003167382243253767</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0878972418874823</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.745680920504943</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.08669317445548191</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.745680920504943</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3766657125.275353</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003417565287243528</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.966683474530815</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8133752807722887</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.966683474530815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5561683962.082064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001854022798534295</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.629065396241113</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8258366896486328</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.629065396241113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7237529750.087545</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001322879009886124</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.490061986093466</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9333008751544668</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.490061986093466</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5560030262.564436</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003175611279922657</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8666665018026186</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.697099613682752</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.158165246676662</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.697099613682752</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5517674790.459872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004804176276727248</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.466809999391383</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9233950205006363</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.466809999391383</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3575897748.995655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005600694918109098</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.097847847386447</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9289589087537786</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.097847847386447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4587808544.401546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009760603198830147</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.791055851322389</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7563406553300235</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.791055851322389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8186591253.82297</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001570646259364758</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.224877226526353</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.003655538975216</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.224877226526353</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4903092451.238655</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003101918690506675</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.944241618240523</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.011797867136684</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.944241618240523</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6274792729.890368</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002588228302162169</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8274276052428546</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.29637272985831</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.061677750396854</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.29637272985831</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7875547741.024446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004852641799854104</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.236487859992688</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9398608888999197</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.236487859992688</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5793414598.573811</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003493449450022436</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.374508631333851</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8932114741700869</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.374508631333851</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5112710326.429243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002421917550328233</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9026726680085553</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.707741719522733</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.18583718002085</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.707741719522733</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4810795164.446259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001002698549391704</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.379891333617172</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9810610476830389</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.379891333617172</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3824971723.569543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002141513354331554</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.98199516666336</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8817780234616186</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.98199516666336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4042131388.8966</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009311383373160772</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.725701451244003</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8244751603168018</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.725701451244003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5178216335.470531</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004617738962335066</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.141716331089761</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8367871340500326</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.141716331089761</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5215789166.828792</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004885109773291514</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.702560134372738</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8712409205148945</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-4.702560134372738</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8658103690.797649</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001908867292492274</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.667874293917173</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8380337063024574</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.667874293917173</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6562107715.795549</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004688476681860811</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3885584219671908</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.412466822712892</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.736819622809591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.412466822712892</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5779495575.151712</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003815358989292267</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.58141657237774</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9223357384202326</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.58141657237774</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4486454818.970204</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001202271764700923</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7479609403464652</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.564213149120254</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9064046482362655</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.564213149120254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7081156761.037261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003304835950098678</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.150996884518573</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9157226016194717</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.150996884518573</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6770513587.414342</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004092892573197119</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9589578941114807</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.33231007641473</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.178686418881465</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.33231007641473</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6550762791.865784</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00112820377079612</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3563072373248775</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.626304805523601</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7019727769699409</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.626304805523601</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5944569277.931209</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003575901579126884</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.175652112511969</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8874982157675874</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.175652112511969</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5348579587.577973</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002115818323413328</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.378799610963473</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9665162746732799</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.378799610963473</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4064018087.518908</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009449769532789602</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.808164522520067</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9376510263647412</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.808164522520067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6633442927.385217</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002381129189509969</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.615160111588809</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.834304299683738</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.615160111588809</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6253145540.828955</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005011657553058415</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.428936452238432</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8219551366945288</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.428936452238432</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6108619707.32273</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.00186246207259776</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.514999579836654</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9300249087013875</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.514999579836654</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7694938602.635192</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003930045194862269</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.302111922769124</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.00166589263974</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.302111922769124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5711932778.03159</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004459150973647558</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.149236966605082</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9884007855063031</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.149236966605082</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3653272817.151042</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003761538688965718</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.223685499122126</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.900019512625831</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.223685499122126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6012874321.837174</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002900899718173405</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.500003254685316</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8416047630109691</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.500003254685316</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5319241518.663876</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004506427295503984</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4550170061947021</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.495816086424107</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8198873376084398</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.495816086424107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5655083283.074478</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001105833452746218</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.542065678322859</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9156936326354229</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.542065678322859</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>7019200240.852817</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004250614878633516</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.418862047793395</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9832003238351344</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.418862047793395</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6129464309.420748</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00386688476512256</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.640725267916024</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9234381112380436</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.640725267916024</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7220897099.657432</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002162658688136362</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.096043298489803</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9190639819999701</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.096043298489803</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5767465341.27066</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001519471115691292</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.588317129262887</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9441527206415441</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.588317129262887</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10233834299.30046</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005224893810220552</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7309045713798853</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.152067968448591</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9163160942019987</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.152067968448591</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7177382414.799238</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002409469017324568</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8911767423836395</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.222663278505482</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.124829840438992</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.222663278505482</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7972933253.822228</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002832704929053456</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.646788181994426</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9654081363616489</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.646788181994426</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5221825149.06882</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004998835464349342</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.259063101447754</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8689786622290865</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.259063101447754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8804767342.451645</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003216893992792824</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.354723156143095</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.031621952267045</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.354723156143095</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4719227716.524853</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005212034630467186</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.043657330865385</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9322528487732921</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.043657330865385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6188919539.604766</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001402865454114144</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.238134064073634</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8416047630109691</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.238134064073634</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4494644881.7038</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002823546145595149</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.320556582651881</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9112532207373185</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.320556582651881</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5404303227.768918</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004246413574637753</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.765947951096777</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8121235229025876</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.765947951096777</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7899861220.665668</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003958069608528161</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8819613432557099</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.966973742226706</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.118983399864317</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.966973742226706</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6235980122.477881</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002030600780082979</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.556787490717042</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9123544465228345</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.556787490717042</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6179661180.81577</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003981746072859774</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.746003446079329</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8487955633562251</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.746003446079329</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7201464272.361031</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002155687423596038</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8256571895073856</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.484452829038123</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9554709794785189</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.484452829038123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>4935555331.521561</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004284305624879316</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.938213763454169</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8560189264418769</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.938213763454169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4313030848.273591</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003744026768789107</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.183580808447835</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.830653958544436</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.183580808447835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5136563745.203689</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005541318599861236</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.647748687073245</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9344328953356139</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.647748687073245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5611675689.886653</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003648653742002778</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.708219380232124</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8524304561275341</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.708219380232124</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6755096240.44941</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005585523189155703</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.938098633755066</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8943794065028925</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.938098633755066</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3609443715.512575</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005212175672695524</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.092069385616767</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9145529200990453</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.092069385616767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6434094775.311062</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003755509527706125</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.583201416737197</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.036566718192995</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.583201416737197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4833168016.941375</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00360816242405929</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.341804013501295</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8966219550893059</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.341804013501295</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7125313149.094022</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003563297542040806</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.369915687436161</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9244817833095588</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-5.369915687436161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8213765793.220365</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002545245449944322</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.172262923417827</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7413430821063529</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.172262923417827</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6480577380.68126</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.000813431153465088</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.861386575416659</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9717377781783968</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.861386575416659</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6947968051.969197</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00351246423275638</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.949304075423681</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9056098477292372</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.949304075423681</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3914733793.791762</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003383113432778034</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.741617371250994</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8070149051311005</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.741617371250994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7536909050.863617</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00226854442765418</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
         <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.302414512293278</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.042477111588091</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.302414512293278</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7706759115.598797</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001111529990132417</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.01662622187614152</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.50245798624949</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3758870439813377</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.50245798624949</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4981636400.109247</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003285047041274092</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.241660151501219</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8642675885377487</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.241660151501219</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7212144425.535805</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002746651759654758</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.058996153376112</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8380020516868422</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.058996153376112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5374922624.629817</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002367714959728824</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1625169930339881</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.065113358041644</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.2054785097439144</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.065113358041644</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6978910498.898953</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.006093700085279091</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.32144720966476</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.013715293287446</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.32144720966476</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7378404380.27426</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00346542738025849</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9938631021951372</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.012548676546641</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.21057497543982</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.012548676546641</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7617442204.612103</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001914244397936957</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.711667153413886</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.382546027838003</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.711667153413886</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5010675087.677219</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002364844839177182</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.424167952154451</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9612526107864178</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.424167952154451</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5453400006.386797</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003348954102307667</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.524938416061135</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9852272617154774</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.524938416061135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8506658692.289446</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00417748100471516</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.867621902986633</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9245248233945571</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.867621902986633</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9911789933.102728</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.00249150738900802</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.393554075604346</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7537160165480252</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.393554075604346</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7412877259.592593</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004385186060274261</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.100199203424195</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9473938356289519</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.100199203424195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4357859870.553617</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002897735799389454</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.786527327034544</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8829460576464492</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.786527327034544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7185890970.828265</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002034635479992945</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.109555395706916</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9484950526887864</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.109555395706916</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4367132694.011274</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001040282538764931</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.528549087030071</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9213328244366279</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.528549087030071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8175544429.713909</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004812381921817802</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.909280735746131</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8070806438263233</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.909280735746131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5416367729.103801</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005240495231950135</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.081412710475576</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9068056919169916</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.081412710475576</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5171954539.496831</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002539193439311748</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.07890140466714403</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.905333183975088</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.3231966546020589</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.905333183975088</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7367127348.116638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004068980693299094</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.149111443498862</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8535298768352845</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.149111443498862</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4291499719.563864</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003753097369217778</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.379111304044133</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.025752456760559</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.379111304044133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6612610933.760554</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001473943840804677</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.538357917720045</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.93547847939088</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.538357917720045</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5041951213.13769</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009853509657824111</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.334586299943986</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.043389008680629</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.334586299943986</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6102425769.027802</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001874401509164221</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.8463889878486566</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.455084540457586</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.113177532872816</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.455084540457586</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7700917680.364391</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002912403832696862</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.783412277840143</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8898475450128429</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.783412277840143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7452891266.792162</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005965073346794266</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.662204210185491</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8931966247446648</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.662204210185491</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8024466464.751216</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004547134227303547</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.605204880927723</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8782494983576454</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.605204880927723</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3572266665.097468</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005224853464442993</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.894557936666048</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.194971376676559</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.894557936666048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6112654345.845493</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003623563400549338</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.237314025333059</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.809565051870951</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.237314025333059</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7700911931.293674</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001214320984380328</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6009731036516958</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.411633457769458</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8771356975105284</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.411633457769458</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_41.xlsx
+++ b/output/fit_clients/fit_round_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8280963050.165442</v>
+        <v>2424736027.758561</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002994134871950507</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.07699854272690043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02855674204377767</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1212368066.497516</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4726229936.15482</v>
+        <v>2275831085.196342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00425266004479749</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+        <v>0.139180019171092</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03208722663948389</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1137915625.222047</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6230755714.488952</v>
+        <v>4443073621.159678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003167382243253767</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>0.1113186807497339</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02318285829651427</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2221536855.988132</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3766657125.275353</v>
+        <v>4066951498.963849</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003417565287243528</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08698310094579646</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03131559057460418</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2033475748.644555</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5561683962.082064</v>
+        <v>2861254975.764849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001854022798534295</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.1077837766741223</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04579274493510929</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1430627424.119949</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7237529750.087545</v>
+        <v>2910936795.124684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001322879009886124</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.0871062803397628</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04138019115946028</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1455468370.859413</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5560030262.564436</v>
+        <v>2941843429.455626</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003175611279922657</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>0.1455533647017474</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02495884874639064</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1470921766.132858</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5517674790.459872</v>
+        <v>2128607697.681572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004804176276727248</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1273898663200972</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03488404527112617</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1064303857.43684</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3575897748.995655</v>
+        <v>4112305482.901338</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005600694918109098</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1598299622886987</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04324295398857876</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2056152771.874771</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3775200671.324448</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1818745503221246</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03258222996524596</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4587808544.401546</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0009760603198830147</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1887600332.509087</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8186591253.82297</v>
+        <v>2686966211.754553</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001570646259364758</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
+        <v>0.1226803347709076</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04039134409079208</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1343483095.069868</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4903092451.238655</v>
+        <v>4836988536.721061</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003101918690506675</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
+        <v>0.08792123538288092</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02341540326905698</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2418494280.616709</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6274792729.890368</v>
+        <v>3805440611.866994</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002588228302162169</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
+        <v>0.1243799944491606</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03891486448072672</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1902720281.913776</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7875547741.024446</v>
+        <v>1692880847.793067</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004852641799854104</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.08219253451474386</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03861019082253033</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>846440552.9651916</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2418900457.903102</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1085311029387597</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05163672361122634</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5793414598.573811</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.003493449450022436</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
+      <c r="J16" t="n">
+        <v>1209450266.866165</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5112710326.429243</v>
+        <v>4903941189.286863</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002421917550328233</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+        <v>0.1401935985063658</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03821978195540698</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2451970584.383215</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4810795164.446259</v>
+        <v>3092848972.763938</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001002698549391704</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
+        <v>0.118496386290674</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03446935799757518</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1546424509.739426</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3824971723.569543</v>
+        <v>969175670.3823919</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002141513354331554</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1524264813652076</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0272012348648899</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>484587856.7847054</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4042131388.8966</v>
+        <v>2554996187.621456</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009311383373160772</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1129527031278131</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02764215471786026</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1277498060.869662</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5178216335.470531</v>
+        <v>2577859782.075443</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004617738962335066</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+        <v>0.1022168989356804</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03257194037708206</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1288929871.622119</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5215789166.828792</v>
+        <v>3625772372.990438</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004885109773291514</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1368834672184873</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04631085589751972</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1812886210.374655</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8658103690.797649</v>
+        <v>1246209506.793828</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001908867292492274</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
+        <v>0.1456083799871377</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05206197977786862</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>623104781.9462848</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6562107715.795549</v>
+        <v>2818376973.157242</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004688476681860811</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.09177784312877729</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02432310632823402</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1409188533.900556</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5779495575.151712</v>
+        <v>1451583205.622935</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003815358989292267</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
+        <v>0.1134609736289889</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02335568711191911</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>725791562.7225112</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4486454818.970204</v>
+        <v>1018577717.827343</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001202271764700923</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08248443296247247</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03444254319093027</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>509288835.3725496</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7081156761.037261</v>
+        <v>3821620000.769729</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003304835950098678</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1036667825768401</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01953628688132622</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1910810019.238968</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6770513587.414342</v>
+        <v>3817749388.706609</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004092892573197119</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
+        <v>0.1509885670609564</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04028819884088181</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1908874776.397212</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6550762791.865784</v>
+        <v>4560359197.168102</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00112820377079612</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>12</v>
+        <v>0.1070429737627194</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03490618929842528</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2280179576.412779</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5944569277.931209</v>
+        <v>2403243925.77223</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003575901579126884</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.09355866650787371</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03161883084014518</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1201622046.139511</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5348579587.577973</v>
+        <v>1420374675.516382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002115818323413328</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
+        <v>0.1100867885783479</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03840157216119187</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>710187237.209939</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4064018087.518908</v>
+        <v>1886914035.19666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009449769532789602</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1000003030300508</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02843489339569895</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>943457165.9231006</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6633442927.385217</v>
+        <v>1921836025.579594</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002381129189509969</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
+        <v>0.1256509478122043</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03706829514092566</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>960918100.0769035</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6253145540.828955</v>
+        <v>1476419510.0322</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005011657553058415</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13</v>
+        <v>0.1196992922707538</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02308816440141936</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>738209714.5714978</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6108619707.32273</v>
+        <v>948209900.6507549</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00186246207259776</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
+        <v>0.1146078535050715</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0422565789637855</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>474104980.1204962</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7694938602.635192</v>
+        <v>2588414090.068575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003930045194862269</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>11</v>
+        <v>0.1708636043497631</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02250139356859681</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1294207059.777045</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5711932778.03159</v>
+        <v>2812203221.574856</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004459150973647558</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09175778614630999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03152970181762694</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1406101749.645178</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3653272817.151042</v>
+        <v>1921476948.178417</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003761538688965718</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07653245590104107</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03747071381091065</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>960738463.6602284</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6012874321.837174</v>
+        <v>1569752961.023694</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002900899718173405</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1860957548566033</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02545628460846905</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>784876540.2083851</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5319241518.663876</v>
+        <v>1560108455.192671</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004506427295503984</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.143634160058609</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04715353373942161</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>780054178.5814353</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5655083283.074478</v>
+        <v>2716710766.144976</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001105833452746218</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1387717904069845</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04152724306762286</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1358355386.982767</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>7019200240.852817</v>
+        <v>4349807979.262414</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004250614878633516</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>11</v>
+        <v>0.08355589683239437</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04254134687765403</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2174904042.882515</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6129464309.420748</v>
+        <v>2401898403.722223</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00386688476512256</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
+        <v>0.1922681617575941</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01833911253403583</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1200949260.219014</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7220897099.657432</v>
+        <v>1901391951.100929</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002162658688136362</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.07362264776969445</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03536936967429972</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>950696062.0630339</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5767465341.27066</v>
+        <v>1559877342.507299</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001519471115691292</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1172395402240546</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04443522020768319</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>779938617.6661568</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10233834299.30046</v>
+        <v>4663693841.086736</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005224893810220552</v>
-      </c>
-      <c r="G46" t="b">
+        <v>0.1569343345169749</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05473421203971036</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>6</v>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2331846927.912608</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7177382414.799238</v>
+        <v>3809823476.287401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002409469017324568</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1741876136237328</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03737209388701989</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1904911726.352095</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7972933253.822228</v>
+        <v>2883116494.143224</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002832704929053456</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
+        <v>0.07842418448779957</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02697947108270802</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1441558346.153679</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5221825149.06882</v>
+        <v>1286990506.253972</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004998835464349342</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1644094240006155</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02850564648594969</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>643495318.0893183</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8804767342.451645</v>
+        <v>3076546587.012176</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003216893992792824</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>11</v>
+        <v>0.1646335636629726</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03581163156300604</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1538273347.747846</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4719227716.524853</v>
+        <v>1205910793.260764</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005212034630467186</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1598347204423315</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03409364876546343</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>602955447.0399197</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6188919539.604766</v>
+        <v>5174653624.872533</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001402865454114144</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
+        <v>0.1213044556855891</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04773121171065755</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2587326799.616436</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4494644881.7038</v>
+        <v>2536291539.771688</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002823546145595149</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
+        <v>0.1448581160708289</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0250215419542655</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1268145834.210665</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5404303227.768918</v>
+        <v>3233027606.667798</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004246413574637753</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11</v>
+        <v>0.1178369181492719</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05004050870448783</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1616513807.051637</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7899861220.665668</v>
+        <v>4334453673.70917</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003958069608528161</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>13</v>
+        <v>0.2077340133671322</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02461535101955361</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2167226826.35411</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6235980122.477881</v>
+        <v>1676805820.947165</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002030600780082979</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1437762462054059</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0557614805718942</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>838402926.393995</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6179661180.81577</v>
+        <v>3026343377.841947</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003981746072859774</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1825183436831622</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02327530775330401</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1513171695.389336</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7201464272.361031</v>
+        <v>1727682832.479437</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002155687423596038</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
+        <v>0.1598284836166193</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03355901461081234</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>863841426.4424491</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4935555331.521561</v>
+        <v>4175854051.067303</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004284305624879316</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1075624764736919</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0348108723393416</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2087926992.848766</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4313030848.273591</v>
+        <v>2574664563.379838</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003744026768789107</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1342733171396653</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02112055845458074</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1287332307.290855</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5136563745.203689</v>
+        <v>3253152543.557107</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005541318599861236</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.176584973672789</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0243602170054807</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1626576228.21005</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5611675689.886653</v>
+        <v>1523025700.638829</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003648653742002778</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
+        <v>0.1271163992649108</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03924988978125549</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>761512836.6997393</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>469</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4894938275.482216</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.09245606611730839</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04043011839495558</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="D63" t="n">
-        <v>490</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6755096240.44941</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.005585523189155703</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2447469160.034585</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3609443715.512575</v>
+        <v>4419309827.502732</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005212175672695524</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1920844039002924</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03238642482312155</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2209654978.944864</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6434094775.311062</v>
+        <v>5303179672.014906</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003755509527706125</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
+        <v>0.1271364478136327</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02896534840759328</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2651589776.677989</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4833168016.941375</v>
+        <v>4396578001.343551</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00360816242405929</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1561778327075394</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03288262226249337</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2198288995.337101</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7125313149.094022</v>
+        <v>3458791466.837127</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003563297542040806</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09277226767372751</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0473552001181017</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1729395712.686246</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8213765793.220365</v>
+        <v>5324189511.186492</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002545245449944322</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
+        <v>0.1086833175679637</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03785695107001989</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2662094831.465263</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6480577380.68126</v>
+        <v>2119119394.374847</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000813431153465088</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
+        <v>0.1478569169175415</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05061880293769374</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1059559717.405785</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6947968051.969197</v>
+        <v>2824989903.10366</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00351246423275638</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.08718321732127694</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0423069148558779</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1412494916.975112</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3914733793.791762</v>
+        <v>4514007440.799076</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003383113432778034</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1319443248625266</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02796537845204173</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2257003789.666072</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7536909050.863617</v>
+        <v>2072998903.263348</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00226854442765418</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
+        <v>0.07072161432148348</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03962411593029842</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1036499386.051844</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7706759115.598797</v>
+        <v>3211604881.605681</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001111529990132417</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.09250099771789105</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03615139789126939</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1605802417.273408</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4981636400.109247</v>
+        <v>3981783741.614881</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003285047041274092</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1769259162586463</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02242274046419964</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1990891851.17695</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7212144425.535805</v>
+        <v>2217810300.957582</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002746651759654758</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>8</v>
+        <v>0.161795394612264</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03074615799602387</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1108905094.019765</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5374922624.629817</v>
+        <v>5129145907.810555</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002367714959728824</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>8</v>
+        <v>0.09079421004464894</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02999347758260767</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2564572985.831491</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6978910498.898953</v>
+        <v>1848761536.018317</v>
       </c>
       <c r="F77" t="n">
-        <v>0.006093700085279091</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1710382340113659</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02833755206507378</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>924380807.0159274</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7378404380.27426</v>
+        <v>2996474468.173976</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00346542738025849</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
+        <v>0.0956400749810921</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05332694307934203</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1498237271.551766</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7617442204.612103</v>
+        <v>1811611896.357264</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001914244397936957</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.1258391986846536</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02559862315636178</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>905806036.7177119</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5486310428.284108</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1016172269315215</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03460890227163022</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5010675087.677219</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.002364844839177182</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2743155287.350891</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5453400006.386797</v>
+        <v>4391328220.096595</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003348954102307667</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.1259792051429438</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02699467842429697</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2195664087.630814</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8506658692.289446</v>
+        <v>5078484495.610211</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00417748100471516</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1686871410313752</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02267441501638784</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2539242227.215137</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9911789933.102728</v>
+        <v>2302641882.043423</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00249150738900802</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.09778289216285735</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03569565747280225</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1151320963.870772</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7412877259.592593</v>
+        <v>1638684515.741957</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004385186060274261</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>11</v>
+        <v>0.09317006061236797</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05177182912551064</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>819342315.6362671</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4357859870.553617</v>
+        <v>3372948903.838119</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002897735799389454</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1128600882915578</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05475483269809323</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1686474553.073951</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7185890970.828265</v>
+        <v>2700191311.724729</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002034635479992945</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1701672307502199</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02598964236487765</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1350095780.683522</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4367132694.011274</v>
+        <v>1000068348.949478</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001040282538764931</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1150110453491664</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04378209789075442</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>500034178.6420054</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8175544429.713909</v>
+        <v>3125995715.453882</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004812381921817802</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.1394659603550264</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03448265064038462</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1562997900.453982</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3398254896.648081</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.109832928947086</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03613354501191884</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5416367729.103801</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.005240495231950135</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1699127457.04417</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5171954539.496831</v>
+        <v>1500051867.051122</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002539193439311748</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
+        <v>0.1125017708738393</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04338960097037185</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>750025912.0875924</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7367127348.116638</v>
+        <v>1729455224.150331</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004068980693299094</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11</v>
+        <v>0.1842025935729734</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05143560742098854</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>864727620.2426209</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4291499719.563864</v>
+        <v>2969936687.429997</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003753097369217778</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.105708510485961</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02950408563362376</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1484968363.035916</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6612610933.760554</v>
+        <v>4636294221.276217</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001473943840804677</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>14</v>
+        <v>0.1033956285772079</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0503942656480801</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2318147069.969896</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5041951213.13769</v>
+        <v>1690049196.952327</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009853509657824111</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>14</v>
+        <v>0.1372822572941096</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02869001688552749</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>845024556.3179737</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6102425769.027802</v>
+        <v>2408755288.370265</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001874401509164221</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>11</v>
+        <v>0.1347284493032362</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04553634241910157</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1204377686.736345</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7700917680.364391</v>
+        <v>1632641550.955861</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002912403832696862</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>11</v>
+        <v>0.09292232163994175</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04659352154820684</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>816320801.509393</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7452891266.792162</v>
+        <v>4743059901.632446</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005965073346794266</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>11</v>
+        <v>0.1604513880590144</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02652840152922493</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2371530066.779151</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8024466464.751216</v>
+        <v>3505018044.882468</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004547134227303547</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>15</v>
+        <v>0.1020666322286359</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01976792889847137</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1752509041.261954</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3572266665.097468</v>
+        <v>2719633760.217434</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005224853464442993</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1348177954436459</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02526474889194016</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1359816845.561064</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6112654345.845493</v>
+        <v>4272994832.179431</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003623563400549338</v>
-      </c>
-      <c r="G100" t="b">
+        <v>0.1093789677701155</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02631159194306652</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="H100" t="n">
-        <v>3</v>
+      <c r="I100" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2136497508.369464</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7700911931.293674</v>
+        <v>3535343948.363629</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001214320984380328</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.2092830952117214</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04916105664771882</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>13</v>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1767672133.855297</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_41.xlsx
+++ b/output/fit_clients/fit_round_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2424736027.758561</v>
+        <v>2185447950.197708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07699854272690043</v>
+        <v>0.0778056435291508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02855674204377767</v>
+        <v>0.02840271933516331</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1212368066.497516</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2275831085.196342</v>
+        <v>2247521880.518987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.139180019171092</v>
+        <v>0.1339844994095242</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03208722663948389</v>
+        <v>0.03252713216046759</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1137915625.222047</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4443073621.159678</v>
+        <v>4315718914.60514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1113186807497339</v>
+        <v>0.1113794072684949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02318285829651427</v>
+        <v>0.03749676935982891</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2221536855.988132</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4066951498.963849</v>
+        <v>3745022965.975446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08698310094579646</v>
+        <v>0.09000517508244976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03131559057460418</v>
+        <v>0.03364606988414191</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2033475748.644555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2861254975.764849</v>
+        <v>1957783196.323551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1077837766741223</v>
+        <v>0.1046607432843803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04579274493510929</v>
+        <v>0.04622250289938</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1430627424.119949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2910936795.124684</v>
+        <v>2396657189.722758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0871062803397628</v>
+        <v>0.08926225326473437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04138019115946028</v>
+        <v>0.04759979710500918</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1455468370.859413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2941843429.455626</v>
+        <v>2863601131.228858</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1455533647017474</v>
+        <v>0.1470543694018167</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02495884874639064</v>
+        <v>0.03307764858544975</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1470921766.132858</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2128607697.681572</v>
+        <v>2258052914.966481</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1273898663200972</v>
+        <v>0.1528532702551784</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03488404527112617</v>
+        <v>0.02670210926681225</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1064303857.43684</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4112305482.901338</v>
+        <v>4462051520.153094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1598299622886987</v>
+        <v>0.1704722679498958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04324295398857876</v>
+        <v>0.04640856208129632</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2056152771.874771</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3775200671.324448</v>
+        <v>3604328523.608482</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1818745503221246</v>
+        <v>0.1611878584240444</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03258222996524596</v>
+        <v>0.04081636845282379</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1887600332.509087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2686966211.754553</v>
+        <v>2646050320.347576</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1226803347709076</v>
+        <v>0.186625544814837</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04039134409079208</v>
+        <v>0.04367436346620091</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1343483095.069868</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4836988536.721061</v>
+        <v>4655427325.470697</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08792123538288092</v>
+        <v>0.07383325570651879</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02341540326905698</v>
+        <v>0.02518013516678694</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2418494280.616709</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3805440611.866994</v>
+        <v>2462697954.285787</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1243799944491606</v>
+        <v>0.1544612638502952</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03891486448072672</v>
+        <v>0.03194504801945802</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1902720281.913776</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1692880847.793067</v>
+        <v>1520613623.74986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08219253451474386</v>
+        <v>0.07787219256215727</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03861019082253033</v>
+        <v>0.04790117144691899</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>846440552.9651916</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2418900457.903102</v>
+        <v>2247734215.640896</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1085311029387597</v>
+        <v>0.09614208897211958</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05163672361122634</v>
+        <v>0.04272816145489862</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1209450266.866165</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4903941189.286863</v>
+        <v>3798825316.777603</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1401935985063658</v>
+        <v>0.1336566204752523</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03821978195540698</v>
+        <v>0.03810910438444234</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2451970584.383215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3092848972.763938</v>
+        <v>3048103050.855778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.118496386290674</v>
+        <v>0.1707494500313422</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03446935799757518</v>
+        <v>0.03442503386100907</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1546424509.739426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>969175670.3823919</v>
+        <v>1339724818.585071</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1524264813652076</v>
+        <v>0.1755846118776574</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0272012348648899</v>
+        <v>0.02422325074518969</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>484587856.7847054</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2554996187.621456</v>
+        <v>2691870200.700146</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1129527031278131</v>
+        <v>0.1566681091532614</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02764215471786026</v>
+        <v>0.03153003152014798</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1277498060.869662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2577859782.075443</v>
+        <v>2295935016.625967</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1022168989356804</v>
+        <v>0.09046520778283076</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03257194037708206</v>
+        <v>0.03915538406446794</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1288929871.622119</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3625772372.990438</v>
+        <v>3230500708.448674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1368834672184873</v>
+        <v>0.1354602976561552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04631085589751972</v>
+        <v>0.04489019543126987</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1812886210.374655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1246209506.793828</v>
+        <v>1214744688.39652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1456083799871377</v>
+        <v>0.1454549174186313</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05206197977786862</v>
+        <v>0.0536262847241676</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>623104781.9462848</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2818376973.157242</v>
+        <v>3799851955.074902</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09177784312877729</v>
+        <v>0.09304127878825288</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02432310632823402</v>
+        <v>0.0333768096755283</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1409188533.900556</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1451583205.622935</v>
+        <v>1320528414.973529</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1134609736289889</v>
+        <v>0.1098526742540161</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02335568711191911</v>
+        <v>0.02914884613010897</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>725791562.7225112</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1018577717.827343</v>
+        <v>1335477968.391091</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08248443296247247</v>
+        <v>0.08329581937360711</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03444254319093027</v>
+        <v>0.03826263886606358</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>509288835.3725496</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3821620000.769729</v>
+        <v>3866542543.956988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1036667825768401</v>
+        <v>0.1082503336139783</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01953628688132622</v>
+        <v>0.02042379173341138</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1910810019.238968</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3817749388.706609</v>
+        <v>2856749833.791682</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1509885670609564</v>
+        <v>0.09165514497390105</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04028819884088181</v>
+        <v>0.03526306611615664</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1908874776.397212</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4560359197.168102</v>
+        <v>4265757936.823837</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1070429737627194</v>
+        <v>0.1510242091572382</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03490618929842528</v>
+        <v>0.03892855520846932</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2280179576.412779</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2403243925.77223</v>
+        <v>2199473829.414614</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09355866650787371</v>
+        <v>0.132178490103268</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03161883084014518</v>
+        <v>0.0286996443353936</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1201622046.139511</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1420374675.516382</v>
+        <v>1240406809.007566</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1100867885783479</v>
+        <v>0.09662381406836959</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03840157216119187</v>
+        <v>0.03428990525510428</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>710187237.209939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1886914035.19666</v>
+        <v>1515295267.297579</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1000003030300508</v>
+        <v>0.09401379286856953</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02843489339569895</v>
+        <v>0.0259605326178278</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>943457165.9231006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1921836025.579594</v>
+        <v>1965957566.611228</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1256509478122043</v>
+        <v>0.1628036770749565</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03706829514092566</v>
+        <v>0.04804086547352322</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>960918100.0769035</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1476419510.0322</v>
+        <v>1400699652.200944</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1196992922707538</v>
+        <v>0.1175407749042913</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02308816440141936</v>
+        <v>0.01959049247145789</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>738209714.5714978</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>948209900.6507549</v>
+        <v>877844776.919149</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1146078535050715</v>
+        <v>0.08720883444135354</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0422565789637855</v>
+        <v>0.02807148221006139</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>474104980.1204962</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2588414090.068575</v>
+        <v>2880218583.840659</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1708636043497631</v>
+        <v>0.1450640015155749</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02250139356859681</v>
+        <v>0.02779578893156139</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1294207059.777045</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2812203221.574856</v>
+        <v>2058896463.656264</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09175778614630999</v>
+        <v>0.08584163798647047</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03152970181762694</v>
+        <v>0.03350223042739369</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1406101749.645178</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1921476948.178417</v>
+        <v>1382013934.858068</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07653245590104107</v>
+        <v>0.08407647341302422</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03747071381091065</v>
+        <v>0.03082972757819282</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>960738463.6602284</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1569752961.023694</v>
+        <v>1557184928.841205</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1860957548566033</v>
+        <v>0.1250940698447239</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02545628460846905</v>
+        <v>0.02190599976551168</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>784876540.2083851</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1560108455.192671</v>
+        <v>1185185501.066734</v>
       </c>
       <c r="F40" t="n">
-        <v>0.143634160058609</v>
+        <v>0.1573787932241889</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04715353373942161</v>
+        <v>0.03794340672610938</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>780054178.5814353</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2716710766.144976</v>
+        <v>2858600410.227544</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1387717904069845</v>
+        <v>0.1528575202296909</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04152724306762286</v>
+        <v>0.04316273049207221</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1358355386.982767</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4349807979.262414</v>
+        <v>3700682323.467113</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08355589683239437</v>
+        <v>0.08191653135711903</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04254134687765403</v>
+        <v>0.03390249802045411</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2174904042.882515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2401898403.722223</v>
+        <v>1879796100.415766</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1922681617575941</v>
+        <v>0.1830710172298469</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01833911253403583</v>
+        <v>0.0174131765635542</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1200949260.219014</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1901391951.100929</v>
+        <v>2062279751.393522</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07362264776969445</v>
+        <v>0.07137795814265378</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03536936967429972</v>
+        <v>0.0369362729990796</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>950696062.0630339</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1559877342.507299</v>
+        <v>1699737335.76894</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1172395402240546</v>
+        <v>0.1716182184206387</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04443522020768319</v>
+        <v>0.04948635209734514</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>779938617.6661568</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4663693841.086736</v>
+        <v>5242226756.631827</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1569343345169749</v>
+        <v>0.1284902796030929</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05473421203971036</v>
+        <v>0.0373182282494185</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2331846927.912608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3809823476.287401</v>
+        <v>3777182875.473075</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1741876136237328</v>
+        <v>0.161344834049208</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03737209388701989</v>
+        <v>0.04631677405411892</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1904911726.352095</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2883116494.143224</v>
+        <v>4198096983.842682</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07842418448779957</v>
+        <v>0.06952618011097016</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02697947108270802</v>
+        <v>0.02847997085438691</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1441558346.153679</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1286990506.253972</v>
+        <v>1220033840.849413</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1644094240006155</v>
+        <v>0.1943525363069253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02850564648594969</v>
+        <v>0.03892079059154469</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>643495318.0893183</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3076546587.012176</v>
+        <v>2972534480.730604</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1646335636629726</v>
+        <v>0.1549377212907714</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03581163156300604</v>
+        <v>0.04230150225230273</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1538273347.747846</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1205910793.260764</v>
+        <v>1375895193.891499</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1598347204423315</v>
+        <v>0.1643300582578065</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03409364876546343</v>
+        <v>0.0427736296741485</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>602955447.0399197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5174653624.872533</v>
+        <v>5279365489.983869</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1213044556855891</v>
+        <v>0.109083066543799</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04773121171065755</v>
+        <v>0.03958627246171243</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>17</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2587326799.616436</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2536291539.771688</v>
+        <v>2898296814.734176</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1448581160708289</v>
+        <v>0.1580068929531179</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0250215419542655</v>
+        <v>0.03003330058842548</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1268145834.210665</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3233027606.667798</v>
+        <v>4743033195.163941</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1178369181492719</v>
+        <v>0.1621172487397359</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05004050870448783</v>
+        <v>0.04838966571502572</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1616513807.051637</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4334453673.70917</v>
+        <v>3395921244.062098</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2077340133671322</v>
+        <v>0.2137776743333102</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02461535101955361</v>
+        <v>0.02640413495272052</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2167226826.35411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1676805820.947165</v>
+        <v>1893432097.954888</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1437762462054059</v>
+        <v>0.1595306649958296</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0557614805718942</v>
+        <v>0.0460215961567773</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>838402926.393995</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3026343377.841947</v>
+        <v>4331512135.985062</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1825183436831622</v>
+        <v>0.1327751974050696</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02327530775330401</v>
+        <v>0.02175382382286925</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1513171695.389336</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1727682832.479437</v>
+        <v>1249946871.460238</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1598284836166193</v>
+        <v>0.1901991404220886</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03355901461081234</v>
+        <v>0.03625750265730569</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>863841426.4424491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4175854051.067303</v>
+        <v>5170762412.166292</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1075624764736919</v>
+        <v>0.1116746069426609</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0348108723393416</v>
+        <v>0.04472900265915526</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2087926992.848766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2574664563.379838</v>
+        <v>3661337869.945425</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1342733171396653</v>
+        <v>0.1406516280285627</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02112055845458074</v>
+        <v>0.02449991058845849</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1287332307.290855</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3253152543.557107</v>
+        <v>2717072644.059194</v>
       </c>
       <c r="F61" t="n">
-        <v>0.176584973672789</v>
+        <v>0.1460918091789157</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0243602170054807</v>
+        <v>0.02340897553617914</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1626576228.21005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1523025700.638829</v>
+        <v>1595127945.086035</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1271163992649108</v>
+        <v>0.1262044447914061</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03924988978125549</v>
+        <v>0.04508860119460595</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>761512836.6997393</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4894938275.482216</v>
+        <v>5144686760.765445</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09245606611730839</v>
+        <v>0.1074675478430415</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04043011839495558</v>
+        <v>0.03535546062358357</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2447469160.034585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4419309827.502732</v>
+        <v>4796573688.399205</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1920844039002924</v>
+        <v>0.1676658573797211</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03238642482312155</v>
+        <v>0.03316461220939292</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2209654978.944864</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5303179672.014906</v>
+        <v>5214572691.467731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1271364478136327</v>
+        <v>0.1669628053091048</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02896534840759328</v>
+        <v>0.02520193273400419</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2651589776.677989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4396578001.343551</v>
+        <v>5416305683.174664</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1561778327075394</v>
+        <v>0.1134716450311287</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03288262226249337</v>
+        <v>0.04701731460166904</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2198288995.337101</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3458791466.837127</v>
+        <v>2613423388.460135</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09277226767372751</v>
+        <v>0.0780036861277292</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0473552001181017</v>
+        <v>0.03389658302033437</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1729395712.686246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5324189511.186492</v>
+        <v>4662532133.782243</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1086833175679637</v>
+        <v>0.1553086512820094</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03785695107001989</v>
+        <v>0.05068650067660658</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2662094831.465263</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2119119394.374847</v>
+        <v>1499220639.397445</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1478569169175415</v>
+        <v>0.1644776425628921</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05061880293769374</v>
+        <v>0.04094448962828821</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1059559717.405785</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2824989903.10366</v>
+        <v>3692334551.09464</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08718321732127694</v>
+        <v>0.08520171162144567</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0423069148558779</v>
+        <v>0.04280483246712337</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1412494916.975112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4514007440.799076</v>
+        <v>3520337691.489801</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1319443248625266</v>
+        <v>0.1343763868924736</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02796537845204173</v>
+        <v>0.03249208036202588</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2257003789.666072</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2072998903.263348</v>
+        <v>1702601984.946169</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07072161432148348</v>
+        <v>0.1013249074403242</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03962411593029842</v>
+        <v>0.03306970780796711</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1036499386.051844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3211604881.605681</v>
+        <v>3198458107.62385</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09250099771789105</v>
+        <v>0.08565922752088316</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03615139789126939</v>
+        <v>0.04522967713406439</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1605802417.273408</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3981783741.614881</v>
+        <v>3211950633.058253</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1769259162586463</v>
+        <v>0.1262409271169774</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02242274046419964</v>
+        <v>0.02859847980141135</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1990891851.17695</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2217810300.957582</v>
+        <v>2033457309.863139</v>
       </c>
       <c r="F75" t="n">
-        <v>0.161795394612264</v>
+        <v>0.1087864713190253</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03074615799602387</v>
+        <v>0.02742275399644472</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1108905094.019765</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5129145907.810555</v>
+        <v>4123938251.223092</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09079421004464894</v>
+        <v>0.09405602093001175</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02999347758260767</v>
+        <v>0.03318398246540153</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2564572985.831491</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1848761536.018317</v>
+        <v>1509022577.867638</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1710382340113659</v>
+        <v>0.1823950682812886</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02833755206507378</v>
+        <v>0.02856969277657093</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>924380807.0159274</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2996474468.173976</v>
+        <v>4807696097.904832</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0956400749810921</v>
+        <v>0.110238477626848</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05332694307934203</v>
+        <v>0.03595320005240957</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1498237271.551766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1811611896.357264</v>
+        <v>1592384481.752826</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1258391986846536</v>
+        <v>0.1501726841617048</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02559862315636178</v>
+        <v>0.03370500340549368</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>905806036.7177119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5486310428.284108</v>
+        <v>3590727110.181849</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016172269315215</v>
+        <v>0.09884435711720167</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03460890227163022</v>
+        <v>0.03438715217145303</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2743155287.350891</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4391328220.096595</v>
+        <v>4943866687.571149</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1259792051429438</v>
+        <v>0.09136758722123535</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02699467842429697</v>
+        <v>0.02725527428795146</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2195664087.630814</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5078484495.610211</v>
+        <v>4663941082.145966</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1686871410313752</v>
+        <v>0.2028794650178308</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02267441501638784</v>
+        <v>0.02582099318223595</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2539242227.215137</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2302641882.043423</v>
+        <v>2334669639.549752</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09778289216285735</v>
+        <v>0.1478386234440151</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03569565747280225</v>
+        <v>0.03460296622464768</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1151320963.870772</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1638684515.741957</v>
+        <v>1581745887.009439</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09317006061236797</v>
+        <v>0.1126946364099679</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05177182912551064</v>
+        <v>0.04208101827780345</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>819342315.6362671</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3372948903.838119</v>
+        <v>2759262978.414082</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1128600882915578</v>
+        <v>0.1601484055791833</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05475483269809323</v>
+        <v>0.04163861710913935</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>15</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1686474553.073951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2700191311.724729</v>
+        <v>1830588011.648442</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1701672307502199</v>
+        <v>0.1107205005397769</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02598964236487765</v>
+        <v>0.02445894423743335</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1350095780.683522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1000068348.949478</v>
+        <v>1182184381.862964</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1150110453491664</v>
+        <v>0.1783227381709241</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04378209789075442</v>
+        <v>0.04341986346684083</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>500034178.6420054</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3125995715.453882</v>
+        <v>2649992654.393113</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1394659603550264</v>
+        <v>0.1110494830348246</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03448265064038462</v>
+        <v>0.02674786247893383</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1562997900.453982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3398254896.648081</v>
+        <v>2282744578.341252</v>
       </c>
       <c r="F89" t="n">
-        <v>0.109832928947086</v>
+        <v>0.1452036383545954</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03613354501191884</v>
+        <v>0.04027476413265076</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1699127457.04417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1500051867.051122</v>
+        <v>1822168431.3335</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1125017708738393</v>
+        <v>0.1154858735235826</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04338960097037185</v>
+        <v>0.04936963419191254</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>750025912.0875924</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1729455224.150331</v>
+        <v>1470985001.817406</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1842025935729734</v>
+        <v>0.1807199648594918</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05143560742098854</v>
+        <v>0.05592873549691788</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>864727620.2426209</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2969936687.429997</v>
+        <v>2238612507.892819</v>
       </c>
       <c r="F92" t="n">
-        <v>0.105708510485961</v>
+        <v>0.06907694416436874</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02950408563362376</v>
+        <v>0.04607823643188907</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1484968363.035916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4636294221.276217</v>
+        <v>4294236202.767966</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1033956285772079</v>
+        <v>0.1274431345676911</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0503942656480801</v>
+        <v>0.0546037345121045</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2318147069.969896</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1690049196.952327</v>
+        <v>2337528856.485335</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372822572941096</v>
+        <v>0.1369793987451</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02869001688552749</v>
+        <v>0.04224735829211407</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>845024556.3179737</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2408755288.370265</v>
+        <v>3045487351.532926</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1347284493032362</v>
+        <v>0.09497538050138719</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04553634241910157</v>
+        <v>0.04985959880261184</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1204377686.736345</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1632641550.955861</v>
+        <v>2181683723.963428</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09292232163994175</v>
+        <v>0.1080311831711138</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04659352154820684</v>
+        <v>0.04629532042037191</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>816320801.509393</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4743059901.632446</v>
+        <v>4422078570.743876</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1604513880590144</v>
+        <v>0.1570428057157671</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02652840152922493</v>
+        <v>0.01960904009570532</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2371530066.779151</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3505018044.882468</v>
+        <v>2501176676.519566</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1020666322286359</v>
+        <v>0.09005064861725877</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01976792889847137</v>
+        <v>0.02099379218244754</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1752509041.261954</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2719633760.217434</v>
+        <v>3168708387.466272</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1348177954436459</v>
+        <v>0.1111395321195154</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02526474889194016</v>
+        <v>0.02352898263489541</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1359816845.561064</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4272994832.179431</v>
+        <v>4680531760.587892</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1093789677701155</v>
+        <v>0.1588790425373839</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02631159194306652</v>
+        <v>0.02614274291888037</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2136497508.369464</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3535343948.363629</v>
+        <v>3135592458.011994</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2092830952117214</v>
+        <v>0.2094998842407891</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04916105664771882</v>
+        <v>0.04818716979547203</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1767672133.855297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_41.xlsx
+++ b/output/fit_clients/fit_round_41.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2185447950.197708</v>
+        <v>1999423976.783427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0778056435291508</v>
+        <v>0.1133634497893439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02840271933516331</v>
+        <v>0.04550038849814027</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2247521880.518987</v>
+        <v>1824092483.887014</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1339844994095242</v>
+        <v>0.1793526762870672</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03252713216046759</v>
+        <v>0.04151894709410307</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4315718914.60514</v>
+        <v>3394386277.851092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1113794072684949</v>
+        <v>0.1575032575518688</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03749676935982891</v>
+        <v>0.03044991562015821</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3745022965.975446</v>
+        <v>3839089391.235067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09000517508244976</v>
+        <v>0.07652789863170173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03364606988414191</v>
+        <v>0.03564781886530975</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1957783196.323551</v>
+        <v>2050875339.399249</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1046607432843803</v>
+        <v>0.1263994388367252</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04622250289938</v>
+        <v>0.04886099443668192</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2396657189.722758</v>
+        <v>2034356980.011549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08926225326473437</v>
+        <v>0.06161891268665147</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04759979710500918</v>
+        <v>0.04731367193229601</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2863601131.228858</v>
+        <v>3685246464.39011</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1470543694018167</v>
+        <v>0.2049685166347734</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03307764858544975</v>
+        <v>0.02550337669333853</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258052914.966481</v>
+        <v>2241610761.598041</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1528532702551784</v>
+        <v>0.1700829002951904</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02670210926681225</v>
+        <v>0.03685820387900372</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4462051520.153094</v>
+        <v>5321332100.818918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1704722679498958</v>
+        <v>0.2069291780286556</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04640856208129632</v>
+        <v>0.03291712238565613</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3604328523.608482</v>
+        <v>4051895224.661361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1611878584240444</v>
+        <v>0.1613094062255185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04081636845282379</v>
+        <v>0.03660745408600111</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2646050320.347576</v>
+        <v>2839414278.737441</v>
       </c>
       <c r="F12" t="n">
-        <v>0.186625544814837</v>
+        <v>0.1896583335863463</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04367436346620091</v>
+        <v>0.04538799181788009</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4655427325.470697</v>
+        <v>3251360933.826732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07383325570651879</v>
+        <v>0.07518127351770056</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02518013516678694</v>
+        <v>0.02786193955228752</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2462697954.285787</v>
+        <v>2781835983.628107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1544612638502952</v>
+        <v>0.1847768153947771</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03194504801945802</v>
+        <v>0.02806600538493349</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1520613623.74986</v>
+        <v>1217203810.497107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07787219256215727</v>
+        <v>0.07628129214512444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04790117144691899</v>
+        <v>0.03027230931982381</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2247734215.640896</v>
+        <v>2541144977.37794</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09614208897211958</v>
+        <v>0.09592763874028189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04272816145489862</v>
+        <v>0.04647821212659847</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3798825316.777603</v>
+        <v>4818091302.258947</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336566204752523</v>
+        <v>0.1321522268198386</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03810910438444234</v>
+        <v>0.0427791079512537</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3048103050.855778</v>
+        <v>3465653264.740339</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1707494500313422</v>
+        <v>0.1840149450123494</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03442503386100907</v>
+        <v>0.03038436452655316</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1339724818.585071</v>
+        <v>1316547216.713871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1755846118776574</v>
+        <v>0.1701737694568261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02422325074518969</v>
+        <v>0.02381204142282934</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2691870200.700146</v>
+        <v>1760666825.242465</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1566681091532614</v>
+        <v>0.1387644421051261</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03153003152014798</v>
+        <v>0.0203023310005439</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2295935016.625967</v>
+        <v>1912572248.434547</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09046520778283076</v>
+        <v>0.08356317896776722</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03915538406446794</v>
+        <v>0.02935479753189988</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3230500708.448674</v>
+        <v>2481119910.023673</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1354602976561552</v>
+        <v>0.1027500711907342</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04489019543126987</v>
+        <v>0.05426667782609873</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1214744688.39652</v>
+        <v>1500297860.687703</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1454549174186313</v>
+        <v>0.1420795251024642</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0536262847241676</v>
+        <v>0.05117511581536757</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3799851955.074902</v>
+        <v>3612546973.992076</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09304127878825288</v>
+        <v>0.1090721995431726</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0333768096755283</v>
+        <v>0.03730774445351014</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1320528414.973529</v>
+        <v>934055500.6106716</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1098526742540161</v>
+        <v>0.07643635112856829</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02914884613010897</v>
+        <v>0.02095371039910857</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1335477968.391091</v>
+        <v>923448442.2706521</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08329581937360711</v>
+        <v>0.0759906197281571</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03826263886606358</v>
+        <v>0.03438972392293453</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3866542543.956988</v>
+        <v>3433888481.412992</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1082503336139783</v>
+        <v>0.1120399776585927</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02042379173341138</v>
+        <v>0.02548275003373277</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2856749833.791682</v>
+        <v>3324054598.99719</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09165514497390105</v>
+        <v>0.1186894507245076</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03526306611615664</v>
+        <v>0.03150407796947088</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4265757936.823837</v>
+        <v>4477821659.307549</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1510242091572382</v>
+        <v>0.1191752626793341</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03892855520846932</v>
+        <v>0.03993450247200007</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2199473829.414614</v>
+        <v>2345082355.065289</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132178490103268</v>
+        <v>0.1143725157334246</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0286996443353936</v>
+        <v>0.03501058317628262</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1240406809.007566</v>
+        <v>1350513633.901367</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09662381406836959</v>
+        <v>0.1053874758544957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03428990525510428</v>
+        <v>0.03717051193581974</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1515295267.297579</v>
+        <v>1735885392.475207</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09401379286856953</v>
+        <v>0.1194238646607779</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0259605326178278</v>
+        <v>0.03777334390913334</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1965957566.611228</v>
+        <v>2743171606.07496</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1628036770749565</v>
+        <v>0.1818941182747454</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04804086547352322</v>
+        <v>0.05623801182195289</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1400699652.200944</v>
+        <v>1325109707.84293</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1175407749042913</v>
+        <v>0.07603764094186097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01959049247145789</v>
+        <v>0.02472723214434883</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>877844776.919149</v>
+        <v>1028138153.644007</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08720883444135354</v>
+        <v>0.0940541261851662</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02807148221006139</v>
+        <v>0.02769165836065012</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2880218583.840659</v>
+        <v>2739056556.214284</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450640015155749</v>
+        <v>0.1527097850702561</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02779578893156139</v>
+        <v>0.02075451160287537</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2058896463.656264</v>
+        <v>2035659020.640035</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08584163798647047</v>
+        <v>0.1025799977603282</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03350223042739369</v>
+        <v>0.03997047396647659</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1382013934.858068</v>
+        <v>2188528181.714946</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08407647341302422</v>
+        <v>0.08305544748328397</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03082972757819282</v>
+        <v>0.0285467881953217</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1557184928.841205</v>
+        <v>2056499879.709471</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1250940698447239</v>
+        <v>0.1503695837877251</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02190599976551168</v>
+        <v>0.02739068328858666</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1185185501.066734</v>
+        <v>1658997476.964526</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1573787932241889</v>
+        <v>0.1249650322320597</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03794340672610938</v>
+        <v>0.05516201136190433</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2858600410.227544</v>
+        <v>1893411438.809744</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1528575202296909</v>
+        <v>0.161122254371033</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04316273049207221</v>
+        <v>0.04636748392256334</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3700682323.467113</v>
+        <v>3053977345.556118</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08191653135711903</v>
+        <v>0.09543419322113343</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03390249802045411</v>
+        <v>0.04368686267470459</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1879796100.415766</v>
+        <v>2729767172.625693</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1830710172298469</v>
+        <v>0.19673298387369</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0174131765635542</v>
+        <v>0.02076238609108374</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2062279751.393522</v>
+        <v>1895599895.96382</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07137795814265378</v>
+        <v>0.08599617597143261</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0369362729990796</v>
+        <v>0.02990867562531928</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1699737335.76894</v>
+        <v>2075464793.713148</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1716182184206387</v>
+        <v>0.1510576009799929</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04948635209734514</v>
+        <v>0.03509686438091906</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5242226756.631827</v>
+        <v>4015700359.58356</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1284902796030929</v>
+        <v>0.169142646235378</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0373182282494185</v>
+        <v>0.04232093541310636</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3777182875.473075</v>
+        <v>5136011350.698319</v>
       </c>
       <c r="F47" t="n">
-        <v>0.161344834049208</v>
+        <v>0.1459003288072966</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04631677405411892</v>
+        <v>0.04688662783845301</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4198096983.842682</v>
+        <v>4126464502.333901</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06952618011097016</v>
+        <v>0.0885221395739051</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02847997085438691</v>
+        <v>0.02533591187512356</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1220033840.849413</v>
+        <v>1236988710.091727</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1943525363069253</v>
+        <v>0.1515559469614929</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03892079059154469</v>
+        <v>0.04062448301001859</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2972534480.730604</v>
+        <v>2928393619.695071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1549377212907714</v>
+        <v>0.1101604405279967</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04230150225230273</v>
+        <v>0.04303183905626703</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1375895193.891499</v>
+        <v>1395180635.000275</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1643300582578065</v>
+        <v>0.1446109672740241</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0427736296741485</v>
+        <v>0.03518064064673062</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5279365489.983869</v>
+        <v>4915795640.848529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.109083066543799</v>
+        <v>0.1206993593428982</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03958627246171243</v>
+        <v>0.055162842854988</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2898296814.734176</v>
+        <v>2287099957.834519</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1580068929531179</v>
+        <v>0.1539033258386241</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03003330058842548</v>
+        <v>0.02507164530384353</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4743033195.163941</v>
+        <v>3179128302.187986</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1621172487397359</v>
+        <v>0.1306675785235446</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04838966571502572</v>
+        <v>0.04064411028851683</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3395921244.062098</v>
+        <v>4649449314.22649</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2137776743333102</v>
+        <v>0.1938860763189158</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02640413495272052</v>
+        <v>0.02323887188100127</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1893432097.954888</v>
+        <v>1225354696.489647</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1595306649958296</v>
+        <v>0.1305144507433275</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0460215961567773</v>
+        <v>0.0355169498730066</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4331512135.985062</v>
+        <v>4319497177.280877</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1327751974050696</v>
+        <v>0.1648100358633333</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02175382382286925</v>
+        <v>0.01893517084534425</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1249946871.460238</v>
+        <v>1367487841.252194</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1901991404220886</v>
+        <v>0.1572272174194207</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03625750265730569</v>
+        <v>0.0334539210028663</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5170762412.166292</v>
+        <v>3580231780.814692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1116746069426609</v>
+        <v>0.1154885163560233</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04472900265915526</v>
+        <v>0.03274110906235836</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3661337869.945425</v>
+        <v>2731059748.55243</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1406516280285627</v>
+        <v>0.1731416327413695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02449991058845849</v>
+        <v>0.03191465562737065</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2717072644.059194</v>
+        <v>2661349637.954539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1460918091789157</v>
+        <v>0.1712223280433602</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02340897553617914</v>
+        <v>0.02082215055875108</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1595127945.086035</v>
+        <v>1523470093.329626</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1262044447914061</v>
+        <v>0.1806242062613646</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04508860119460595</v>
+        <v>0.04715672269163203</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5144686760.765445</v>
+        <v>4512411710.481822</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1074675478430415</v>
+        <v>0.08867493625087758</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03535546062358357</v>
+        <v>0.03255356702307424</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4796573688.399205</v>
+        <v>4127621412.510171</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1676658573797211</v>
+        <v>0.1415218101363758</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03316461220939292</v>
+        <v>0.03214974859010817</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5214572691.467731</v>
+        <v>4384274885.926705</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1669628053091048</v>
+        <v>0.1131190260194855</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02520193273400419</v>
+        <v>0.0308089987208718</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5416305683.174664</v>
+        <v>4706438899.500402</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1134716450311287</v>
+        <v>0.1487506250043563</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04701731460166904</v>
+        <v>0.05103773996274671</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2613423388.460135</v>
+        <v>2284440731.149847</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0780036861277292</v>
+        <v>0.09017211274753829</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03389658302033437</v>
+        <v>0.03333549316532124</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4662532133.782243</v>
+        <v>4268021467.38428</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1553086512820094</v>
+        <v>0.1057398248563633</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05068650067660658</v>
+        <v>0.04904476363517334</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1499220639.397445</v>
+        <v>1922772132.963314</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1644776425628921</v>
+        <v>0.1499855066778694</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04094448962828821</v>
+        <v>0.05347210086247523</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3692334551.09464</v>
+        <v>3568778227.408044</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08520171162144567</v>
+        <v>0.08597671631890534</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04280483246712337</v>
+        <v>0.03502109615677909</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3520337691.489801</v>
+        <v>5276971639.248171</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1343763868924736</v>
+        <v>0.1415185498509255</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03249208036202588</v>
+        <v>0.02086149992011292</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1702601984.946169</v>
+        <v>2120222000.459797</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1013249074403242</v>
+        <v>0.09926966037241826</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03306970780796711</v>
+        <v>0.04195297100450446</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3198458107.62385</v>
+        <v>2400136788.170681</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08565922752088316</v>
+        <v>0.1027511283435951</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04522967713406439</v>
+        <v>0.03192048655529697</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3211950633.058253</v>
+        <v>2440457163.804373</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1262409271169774</v>
+        <v>0.165291903243053</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02859847980141135</v>
+        <v>0.0289513141919951</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2033457309.863139</v>
+        <v>1521234675.640537</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087864713190253</v>
+        <v>0.1325199385155823</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02742275399644472</v>
+        <v>0.03290530420789518</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4123938251.223092</v>
+        <v>5267809818.735042</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09405602093001175</v>
+        <v>0.1175054345812163</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03318398246540153</v>
+        <v>0.02196749567089446</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1509022577.867638</v>
+        <v>1776009958.984934</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1823950682812886</v>
+        <v>0.1709363232155501</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02856969277657093</v>
+        <v>0.02103140031105034</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4807696097.904832</v>
+        <v>3436827259.996479</v>
       </c>
       <c r="F78" t="n">
-        <v>0.110238477626848</v>
+        <v>0.1259129498762908</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03595320005240957</v>
+        <v>0.03717529212616171</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1592384481.752826</v>
+        <v>1566061653.58485</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1501726841617048</v>
+        <v>0.1260893438301067</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03370500340549368</v>
+        <v>0.03773474801100928</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3590727110.181849</v>
+        <v>4055918167.645883</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09884435711720167</v>
+        <v>0.1107371365549139</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03438715217145303</v>
+        <v>0.02563085523534991</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4943866687.571149</v>
+        <v>5193331894.3198</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09136758722123535</v>
+        <v>0.09299982520262048</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02725527428795146</v>
+        <v>0.02841816725583228</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4663941082.145966</v>
+        <v>5235357441.714288</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2028794650178308</v>
+        <v>0.1512860659815397</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02582099318223595</v>
+        <v>0.02469775362440839</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2334669639.549752</v>
+        <v>1947995316.35407</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1478386234440151</v>
+        <v>0.1404200388061355</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03460296622464768</v>
+        <v>0.0443722730760141</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1581745887.009439</v>
+        <v>1947261651.544192</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1126946364099679</v>
+        <v>0.1170693723961903</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04208101827780345</v>
+        <v>0.03579178024401707</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2759262978.414082</v>
+        <v>3548654359.256274</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1601484055791833</v>
+        <v>0.1608262666622492</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04163861710913935</v>
+        <v>0.03798866173905283</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1830588011.648442</v>
+        <v>2518465681.129049</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1107205005397769</v>
+        <v>0.1127521906184056</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02445894423743335</v>
+        <v>0.02647237641486275</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1182184381.862964</v>
+        <v>1473473949.270815</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1783227381709241</v>
+        <v>0.1455809441547263</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04341986346684083</v>
+        <v>0.03928209152339789</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2649992654.393113</v>
+        <v>2589497761.749552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1110494830348246</v>
+        <v>0.1776822579718686</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02674786247893383</v>
+        <v>0.02902550361162791</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2282744578.341252</v>
+        <v>3378756742.418327</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1452036383545954</v>
+        <v>0.1469238691674548</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04027476413265076</v>
+        <v>0.03440031246869368</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1822168431.3335</v>
+        <v>1872433537.048799</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1154858735235826</v>
+        <v>0.1354556054043493</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04936963419191254</v>
+        <v>0.03846543151533247</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1470985001.817406</v>
+        <v>1989197978.942596</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1807199648594918</v>
+        <v>0.1942574759776165</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05592873549691788</v>
+        <v>0.05750172268064389</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2238612507.892819</v>
+        <v>2052914265.966776</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06907694416436874</v>
+        <v>0.09538703984358618</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04607823643188907</v>
+        <v>0.03878560041943561</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4294236202.767966</v>
+        <v>3386116423.167912</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1274431345676911</v>
+        <v>0.1033115670635133</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0546037345121045</v>
+        <v>0.0406617071228321</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2337528856.485335</v>
+        <v>1909891883.229481</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1369793987451</v>
+        <v>0.1275378846972337</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04224735829211407</v>
+        <v>0.04058282773908669</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3045487351.532926</v>
+        <v>2631471737.027673</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09497538050138719</v>
+        <v>0.1128801730064838</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04985959880261184</v>
+        <v>0.03531045170035019</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2181683723.963428</v>
+        <v>2061851990.783144</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1080311831711138</v>
+        <v>0.1006882819385982</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04629532042037191</v>
+        <v>0.03480190681257499</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4422078570.743876</v>
+        <v>4449838992.648816</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1570428057157671</v>
+        <v>0.1405224532241663</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01960904009570532</v>
+        <v>0.02500946583932554</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2501176676.519566</v>
+        <v>3143796949.669844</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09005064861725877</v>
+        <v>0.1208967933507992</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02099379218244754</v>
+        <v>0.02215110652704916</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3168708387.466272</v>
+        <v>2518658558.211381</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1111395321195154</v>
+        <v>0.1005857336971357</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02352898263489541</v>
+        <v>0.02768754154301213</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4680531760.587892</v>
+        <v>4737789242.552097</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1588790425373839</v>
+        <v>0.160392433386839</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02614274291888037</v>
+        <v>0.01947280345464572</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3135592458.011994</v>
+        <v>3092962829.780526</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2094998842407891</v>
+        <v>0.1350534975609013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04818716979547203</v>
+        <v>0.0421262365671015</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_41.xlsx
+++ b/output/fit_clients/fit_round_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1999423976.783427</v>
+        <v>1924488529.585359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1133634497893439</v>
+        <v>0.1088930978742613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04550038849814027</v>
+        <v>0.02864685922597371</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1824092483.887014</v>
+        <v>2297036673.866627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1793526762870672</v>
+        <v>0.1111996320449976</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04151894709410307</v>
+        <v>0.0430690704936215</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3394386277.851092</v>
+        <v>4258034996.688109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1575032575518688</v>
+        <v>0.1049062650264152</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03044991562015821</v>
+        <v>0.02395094861585614</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>214.3542265930891</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3839089391.235067</v>
+        <v>3631853701.89011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07652789863170173</v>
+        <v>0.1036960566385062</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03564781886530975</v>
+        <v>0.03702275701989396</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2050875339.399249</v>
+        <v>2281615119.510649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1263994388367252</v>
+        <v>0.120692928383964</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04886099443668192</v>
+        <v>0.05269196568951134</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2034356980.011549</v>
+        <v>2115890708.398276</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06161891268665147</v>
+        <v>0.07206243143999436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04731367193229601</v>
+        <v>0.03266974333142636</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3685246464.39011</v>
+        <v>3210311253.231602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2049685166347734</v>
+        <v>0.1606312230775418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02550337669333853</v>
+        <v>0.02391833408633226</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2241610761.598041</v>
+        <v>1714129188.318066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1700829002951904</v>
+        <v>0.1420434959082804</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03685820387900372</v>
+        <v>0.03023367573834146</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5321332100.818918</v>
+        <v>5544247201.626421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2069291780286556</v>
+        <v>0.1596504649785072</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03291712238565613</v>
+        <v>0.0461925807046589</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>41</v>
+      </c>
+      <c r="K10" t="n">
+        <v>237.205125292021</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4051895224.661361</v>
+        <v>3769442574.329338</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1613094062255185</v>
+        <v>0.1456152477290598</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03660745408600111</v>
+        <v>0.04263948054176585</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="n">
+        <v>187.6584890819206</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2839414278.737441</v>
+        <v>3228854490.294238</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1896583335863463</v>
+        <v>0.1681534608132796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04538799181788009</v>
+        <v>0.03253298949952937</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3251360933.826732</v>
+        <v>4009385852.845777</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07518127351770056</v>
+        <v>0.08124501583457633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02786193955228752</v>
+        <v>0.02108506421460131</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>41</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2781835983.628107</v>
+        <v>2767579579.449678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1847768153947771</v>
+        <v>0.1868622631579504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02806600538493349</v>
+        <v>0.03739224636337048</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1217203810.497107</v>
+        <v>1340498800.091471</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07628129214512444</v>
+        <v>0.08974019597018208</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03027230931982381</v>
+        <v>0.03124107056638162</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2541144977.37794</v>
+        <v>2626657273.153986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09592763874028189</v>
+        <v>0.09851423030682988</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04647821212659847</v>
+        <v>0.04830739034380861</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4818091302.258947</v>
+        <v>4140832571.278972</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1321522268198386</v>
+        <v>0.1156157675031274</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0427791079512537</v>
+        <v>0.05145745360858772</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3465653264.740339</v>
+        <v>3846977344.662457</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1840149450123494</v>
+        <v>0.1252315534283975</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03038436452655316</v>
+        <v>0.02482120295520997</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>41</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1316547216.713871</v>
+        <v>1122111009.908129</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1701737694568261</v>
+        <v>0.1481868594564731</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02381204142282934</v>
+        <v>0.01661077705466369</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1760666825.242465</v>
+        <v>1724383023.02377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1387644421051261</v>
+        <v>0.1588367580562054</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0203023310005439</v>
+        <v>0.0308756962723209</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1912572248.434547</v>
+        <v>2410112298.529683</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08356317896776722</v>
+        <v>0.07871957905695975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02935479753189988</v>
+        <v>0.03384844038847969</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2481119910.023673</v>
+        <v>3025883533.353059</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1027500711907342</v>
+        <v>0.1006575986460834</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05426667782609873</v>
+        <v>0.05534891000798969</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>40</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98.31798381123244</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1500297860.687703</v>
+        <v>1240903471.359138</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1420795251024642</v>
+        <v>0.1638944506105272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05117511581536757</v>
+        <v>0.03523827125999755</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3612546973.992076</v>
+        <v>2606878794.161085</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1090721995431726</v>
+        <v>0.1360940407779403</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03730774445351014</v>
+        <v>0.02709547944551563</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>934055500.6106716</v>
+        <v>984359048.1138555</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07643635112856829</v>
+        <v>0.07947878791051756</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02095371039910857</v>
+        <v>0.01991112501724352</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>923448442.2706521</v>
+        <v>1453735201.378603</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0759906197281571</v>
+        <v>0.104967820629092</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03438972392293453</v>
+        <v>0.02844728180070547</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3433888481.412992</v>
+        <v>3567551751.261834</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1120399776585927</v>
+        <v>0.1521647222005311</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02548275003373277</v>
+        <v>0.02209104401156307</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3324054598.99719</v>
+        <v>3266822678.27599</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1186894507245076</v>
+        <v>0.1034594688275701</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03150407796947088</v>
+        <v>0.0347388633778809</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>40</v>
+      </c>
+      <c r="K28" t="n">
+        <v>128.6080774395914</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4477821659.307549</v>
+        <v>4142783758.034229</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1191752626793341</v>
+        <v>0.09391852940292968</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03993450247200007</v>
+        <v>0.03197365223071176</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>36</v>
+      </c>
+      <c r="J29" t="n">
+        <v>41</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2345082355.065289</v>
+        <v>1504472797.49317</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1143725157334246</v>
+        <v>0.1214911138924443</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03501058317628262</v>
+        <v>0.03287757023624141</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1350513633.901367</v>
+        <v>1091414200.053102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1053874758544957</v>
+        <v>0.08531846215286171</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03717051193581974</v>
+        <v>0.0475080404769368</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1735885392.475207</v>
+        <v>1447184259.254202</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1194238646607779</v>
+        <v>0.1173256416845123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03777334390913334</v>
+        <v>0.02373525382296965</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2743171606.07496</v>
+        <v>3114197275.824605</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1818941182747454</v>
+        <v>0.1273732661288193</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05623801182195289</v>
+        <v>0.04491765072617961</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1325109707.84293</v>
+        <v>1111222982.842673</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07603764094186097</v>
+        <v>0.09285426826227211</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02472723214434883</v>
+        <v>0.02522119508950612</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1028138153.644007</v>
+        <v>1074283403.691018</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0940541261851662</v>
+        <v>0.07636383798159836</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02769165836065012</v>
+        <v>0.02763974325213307</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2739056556.214284</v>
+        <v>2894975626.129747</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1527097850702561</v>
+        <v>0.1251493031594122</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02075451160287537</v>
+        <v>0.01960888304160549</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2035659020.640035</v>
+        <v>2711357896.194809</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1025799977603282</v>
+        <v>0.07329730604843231</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03997047396647659</v>
+        <v>0.03103590064505965</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2188528181.714946</v>
+        <v>1715094343.723131</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08305544748328397</v>
+        <v>0.08036379037775007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0285467881953217</v>
+        <v>0.03598720638376657</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2056499879.709471</v>
+        <v>1504329926.273317</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1503695837877251</v>
+        <v>0.1315953657808308</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02739068328858666</v>
+        <v>0.03159070657758136</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1658997476.964526</v>
+        <v>1638935306.705965</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249650322320597</v>
+        <v>0.1121202575177574</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05516201136190433</v>
+        <v>0.05969901879846487</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1893411438.809744</v>
+        <v>2441204138.863115</v>
       </c>
       <c r="F41" t="n">
-        <v>0.161122254371033</v>
+        <v>0.1280388990044838</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04636748392256334</v>
+        <v>0.037855436552014</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3053977345.556118</v>
+        <v>4260843678.889207</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09543419322113343</v>
+        <v>0.1048922105897298</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04368686267470459</v>
+        <v>0.03980707690578564</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>208.1257609940946</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2729767172.625693</v>
+        <v>2459559319.429448</v>
       </c>
       <c r="F43" t="n">
-        <v>0.19673298387369</v>
+        <v>0.1295422020691289</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02076238609108374</v>
+        <v>0.02406954882977489</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1895599895.96382</v>
+        <v>1430457575.833669</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08599617597143261</v>
+        <v>0.07595711265871967</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02990867562531928</v>
+        <v>0.03141162469929892</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2075464793.713148</v>
+        <v>2509451133.377231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1510576009799929</v>
+        <v>0.1812550305344555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03509686438091906</v>
+        <v>0.03724287336634582</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4015700359.58356</v>
+        <v>3828079756.667755</v>
       </c>
       <c r="F46" t="n">
-        <v>0.169142646235378</v>
+        <v>0.1616642497909921</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04232093541310636</v>
+        <v>0.03987257717924999</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>40</v>
+      </c>
+      <c r="K46" t="n">
+        <v>180.1429095466487</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5136011350.698319</v>
+        <v>4927046420.139488</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1459003288072966</v>
+        <v>0.1976732556614981</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04688662783845301</v>
+        <v>0.0461392667394513</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>17</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4126464502.333901</v>
+        <v>4132954484.157238</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0885221395739051</v>
+        <v>0.1040386624112289</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02533591187512356</v>
+        <v>0.03086333825711503</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>40</v>
+      </c>
+      <c r="K48" t="n">
+        <v>206.047712325014</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1236988710.091727</v>
+        <v>1716706277.549426</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1515559469614929</v>
+        <v>0.1893102307290879</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04062448301001859</v>
+        <v>0.03494813711862096</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2928393619.695071</v>
+        <v>3201111149.404489</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1101604405279967</v>
+        <v>0.1775592958651665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04303183905626703</v>
+        <v>0.03407470490185782</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>38</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1395180635.000275</v>
+        <v>1158461792.712747</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1446109672740241</v>
+        <v>0.1842236995978662</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03518064064673062</v>
+        <v>0.03475201629843896</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4915795640.848529</v>
+        <v>4952324789.652882</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1206993593428982</v>
+        <v>0.1230825823381494</v>
       </c>
       <c r="G52" t="n">
-        <v>0.055162842854988</v>
+        <v>0.04333293147774839</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>32</v>
+      </c>
+      <c r="J52" t="n">
+        <v>41</v>
+      </c>
+      <c r="K52" t="n">
+        <v>228.5677674624571</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2287099957.834519</v>
+        <v>3149575227.955723</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1539033258386241</v>
+        <v>0.1707061531142804</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02507164530384353</v>
+        <v>0.02592095459082764</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3179128302.187986</v>
+        <v>4009467809.537032</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1306675785235446</v>
+        <v>0.1308789422774161</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04064411028851683</v>
+        <v>0.05087307577773909</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>41</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4649449314.22649</v>
+        <v>4228841679.992842</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1938860763189158</v>
+        <v>0.1595645910077592</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02323887188100127</v>
+        <v>0.02157596639952342</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>41</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1225354696.489647</v>
+        <v>1498875498.506168</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1305144507433275</v>
+        <v>0.1582273771354688</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0355169498730066</v>
+        <v>0.04946258878932197</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4319497177.280877</v>
+        <v>3500304681.549843</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1648100358633333</v>
+        <v>0.1402574075777549</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01893517084534425</v>
+        <v>0.02298216288923547</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1367487841.252194</v>
+        <v>1808249312.518576</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1572272174194207</v>
+        <v>0.1762061984925499</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0334539210028663</v>
+        <v>0.02799562139002994</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3580231780.814692</v>
+        <v>4682713775.690997</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1154885163560233</v>
+        <v>0.1094306068073595</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03274110906235836</v>
+        <v>0.04431046267984383</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>41</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2731059748.55243</v>
+        <v>3491981589.041879</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1731416327413695</v>
+        <v>0.1928691369970651</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03191465562737065</v>
+        <v>0.02634683862011671</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2661349637.954539</v>
+        <v>3131037901.654635</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1712223280433602</v>
+        <v>0.1582818224341564</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02082215055875108</v>
+        <v>0.03233153444621933</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1523470093.329626</v>
+        <v>1502877603.195618</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1806242062613646</v>
+        <v>0.1943027114257841</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04715672269163203</v>
+        <v>0.04119115346635062</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4512411710.481822</v>
+        <v>4160356544.382425</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08867493625087758</v>
+        <v>0.1034731196867003</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03255356702307424</v>
+        <v>0.03389121416681489</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>20</v>
+      </c>
+      <c r="J63" t="n">
+        <v>40</v>
+      </c>
+      <c r="K63" t="n">
+        <v>194.5737379073822</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4127621412.510171</v>
+        <v>3615022859.002377</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1415218101363758</v>
+        <v>0.1855702430519484</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03214974859010817</v>
+        <v>0.02892556762566947</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>41</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4384274885.926705</v>
+        <v>5254870599.674618</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1131190260194855</v>
+        <v>0.1567797419881393</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0308089987208718</v>
+        <v>0.02397921744768555</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33</v>
+      </c>
+      <c r="J65" t="n">
+        <v>41</v>
+      </c>
+      <c r="K65" t="n">
+        <v>213.6624178964394</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4706438899.500402</v>
+        <v>3584287483.810587</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1487506250043563</v>
+        <v>0.1085713908302769</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05103773996274671</v>
+        <v>0.03316427263270213</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>41</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2284440731.149847</v>
+        <v>3034169079.717904</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09017211274753829</v>
+        <v>0.09079823900713672</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03333549316532124</v>
+        <v>0.04996421061931343</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4268021467.38428</v>
+        <v>5685590874.337595</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1057398248563633</v>
+        <v>0.1049794627006647</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04904476363517334</v>
+        <v>0.04504357100092739</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>41</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1922772132.963314</v>
+        <v>2103340466.762426</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1499855066778694</v>
+        <v>0.1127063398855428</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05347210086247523</v>
+        <v>0.04011673745470108</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3568778227.408044</v>
+        <v>2787756886.592669</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08597671631890534</v>
+        <v>0.0864976593563087</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03502109615677909</v>
+        <v>0.0498142627618569</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5276971639.248171</v>
+        <v>5311987901.654881</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1415185498509255</v>
+        <v>0.1199250094665339</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02086149992011292</v>
+        <v>0.02947972909904504</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>41</v>
+      </c>
+      <c r="K71" t="n">
+        <v>214.7649378653954</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2120222000.459797</v>
+        <v>1380577662.821615</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09926966037241826</v>
+        <v>0.0934657501851444</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04195297100450446</v>
+        <v>0.05105568961788495</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2400136788.170681</v>
+        <v>2449570904.862967</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1027511283435951</v>
+        <v>0.07512676964391225</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03192048655529697</v>
+        <v>0.04085644162678102</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3045,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2440457163.804373</v>
+        <v>3216229150.691921</v>
       </c>
       <c r="F74" t="n">
-        <v>0.165291903243053</v>
+        <v>0.1662147233562648</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0289513141919951</v>
+        <v>0.02483609644293121</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1521234675.640537</v>
+        <v>1855129384.007348</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1325199385155823</v>
+        <v>0.1115854263521097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03290530420789518</v>
+        <v>0.03376266612464708</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3109,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5267809818.735042</v>
+        <v>4214166063.960312</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1175054345812163</v>
+        <v>0.1075171993073322</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02196749567089446</v>
+        <v>0.03062014185271775</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>19</v>
+      </c>
+      <c r="J76" t="n">
+        <v>41</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3144,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1776009958.984934</v>
+        <v>2113938802.708301</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1709363232155501</v>
+        <v>0.1787286293310001</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02103140031105034</v>
+        <v>0.0270960221969738</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3179,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3436827259.996479</v>
+        <v>4420939531.932939</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1259129498762908</v>
+        <v>0.1262806329880229</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03717529212616171</v>
+        <v>0.04438725903359846</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>41</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3220,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1566061653.58485</v>
+        <v>1606882552.975776</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1260893438301067</v>
+        <v>0.1110220449832092</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03773474801100928</v>
+        <v>0.02481805311187694</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3255,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4055918167.645883</v>
+        <v>4901772639.515223</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107371365549139</v>
+        <v>0.08985994096702275</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02563085523534991</v>
+        <v>0.03173331249856542</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>40</v>
+      </c>
+      <c r="K80" t="n">
+        <v>167.4926604266277</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3286,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5193331894.3198</v>
+        <v>4809101136.659074</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09299982520262048</v>
+        <v>0.1275236810564833</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02841816725583228</v>
+        <v>0.02762409210953298</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18</v>
+      </c>
+      <c r="J81" t="n">
+        <v>40</v>
+      </c>
+      <c r="K81" t="n">
+        <v>169.9799766761061</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3323,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5235357441.714288</v>
+        <v>5083413091.707747</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1512860659815397</v>
+        <v>0.1409804769945527</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02469775362440839</v>
+        <v>0.02406850892885846</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23</v>
+      </c>
+      <c r="J82" t="n">
+        <v>40</v>
+      </c>
+      <c r="K82" t="n">
+        <v>213.0860125955387</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3360,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1947995316.35407</v>
+        <v>2334040647.632143</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1404200388061355</v>
+        <v>0.1148822207200308</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0443722730760141</v>
+        <v>0.03281834564212398</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3395,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1947261651.544192</v>
+        <v>2437888657.152449</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1170693723961903</v>
+        <v>0.07315592212060489</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03579178024401707</v>
+        <v>0.03159343745831005</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3430,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3548654359.256274</v>
+        <v>3103910644.543123</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1608262666622492</v>
+        <v>0.1285499029429379</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03798866173905283</v>
+        <v>0.05355921638636513</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3471,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2518465681.129049</v>
+        <v>1954285747.780556</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1127521906184056</v>
+        <v>0.1325870222618676</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02647237641486275</v>
+        <v>0.0216688209567571</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3506,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1473473949.270815</v>
+        <v>960631506.7144216</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1455809441547263</v>
+        <v>0.1541769677664605</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03928209152339789</v>
+        <v>0.03041792537125096</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3535,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2589497761.749552</v>
+        <v>2571271734.656259</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1776822579718686</v>
+        <v>0.1377649998802132</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02902550361162791</v>
+        <v>0.03933755938519658</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>40</v>
+      </c>
+      <c r="K88" t="n">
+        <v>86.34039797786538</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3572,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3378756742.418327</v>
+        <v>2359570785.720039</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1469238691674548</v>
+        <v>0.09931796312806708</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03440031246869368</v>
+        <v>0.03427719783706133</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="n">
+        <v>67.89939317301643</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1872433537.048799</v>
+        <v>2065429366.320931</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1354556054043493</v>
+        <v>0.1369697910986773</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03846543151533247</v>
+        <v>0.05109198176131707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1989197978.942596</v>
+        <v>1935214942.447464</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1942574759776165</v>
+        <v>0.1588828002144066</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05750172268064389</v>
+        <v>0.03756773151904124</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2052914265.966776</v>
+        <v>1918848295.844051</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09538703984358618</v>
+        <v>0.07233651296375318</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03878560041943561</v>
+        <v>0.03578778680692084</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3720,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3386116423.167912</v>
+        <v>4985354763.141367</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1033115670635133</v>
+        <v>0.137124818042737</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0406617071228321</v>
+        <v>0.05158163511833957</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>18</v>
+      </c>
+      <c r="J93" t="n">
+        <v>41</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1909891883.229481</v>
+        <v>1860348070.890875</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1275378846972337</v>
+        <v>0.1322364690350993</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04058282773908669</v>
+        <v>0.04147289970762663</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2631471737.027673</v>
+        <v>3070449860.775762</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1128801730064838</v>
+        <v>0.1190143101395878</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03531045170035019</v>
+        <v>0.03546658894898178</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2061851990.783144</v>
+        <v>2177446202.049234</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1006882819385982</v>
+        <v>0.09162721280017225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03480190681257499</v>
+        <v>0.03186490278138094</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4449838992.648816</v>
+        <v>5176984415.063545</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1405224532241663</v>
+        <v>0.1773191841857623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02500946583932554</v>
+        <v>0.02157984380221883</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" t="n">
+        <v>40</v>
+      </c>
+      <c r="K97" t="n">
+        <v>208.788686007342</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3143796949.669844</v>
+        <v>3871430946.318389</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1208967933507992</v>
+        <v>0.1022550980779338</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02215110652704916</v>
+        <v>0.03221755592155514</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>40</v>
+      </c>
+      <c r="K98" t="n">
+        <v>160.2029562488848</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2518658558.211381</v>
+        <v>2462644896.0676</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1005857336971357</v>
+        <v>0.09680604754137809</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02768754154301213</v>
+        <v>0.03160775511849039</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4737789242.552097</v>
+        <v>3150191583.584604</v>
       </c>
       <c r="F100" t="n">
-        <v>0.160392433386839</v>
+        <v>0.1792786944586383</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01947280345464572</v>
+        <v>0.02125200674610956</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19</v>
+      </c>
+      <c r="J100" t="n">
+        <v>40</v>
+      </c>
+      <c r="K100" t="n">
+        <v>113.2657775101611</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3092962829.780526</v>
+        <v>2425622595.571881</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1350534975609013</v>
+        <v>0.1642112811447045</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0421262365671015</v>
+        <v>0.04096003934671109</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
